--- a/SNR_Tab.xlsx
+++ b/SNR_Tab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>SNR debruité par Pond</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SNR debruité par Pond 2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>SNR debruité par Med</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SNR debruité par Med 2</t>
         </is>
@@ -485,19 +495,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.783682808775289</v>
+        <v>9.855526265034211</v>
       </c>
       <c r="E2" t="n">
-        <v>17.91825290723351</v>
+        <v>17.93346731741102</v>
       </c>
       <c r="F2" t="n">
-        <v>19.16078283928236</v>
+        <v>19.17199880502998</v>
       </c>
       <c r="G2" t="n">
-        <v>24.79392009981144</v>
+        <v>16.92289361150507</v>
       </c>
       <c r="H2" t="n">
-        <v>22.26543955977352</v>
+        <v>19.12498274659015</v>
+      </c>
+      <c r="I2" t="n">
+        <v>24.64547587895199</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22.14550936085902</v>
       </c>
     </row>
     <row r="3">
@@ -515,19 +531,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11.86041737142639</v>
+        <v>11.86212246780504</v>
       </c>
       <c r="E3" t="n">
-        <v>20.01055074980697</v>
+        <v>20.05044133883128</v>
       </c>
       <c r="F3" t="n">
-        <v>20.67791180322525</v>
+        <v>20.69221952981986</v>
       </c>
       <c r="G3" t="n">
-        <v>20.22648038708009</v>
+        <v>19.17496002277806</v>
       </c>
       <c r="H3" t="n">
-        <v>17.32390154924927</v>
+        <v>21.04516497582352</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.13695982022621</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17.27483247958508</v>
       </c>
     </row>
     <row r="4">
@@ -545,19 +567,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.07140224147737</v>
+        <v>11.09926691095954</v>
       </c>
       <c r="E4" t="n">
-        <v>19.41932320361499</v>
+        <v>19.4098282631975</v>
       </c>
       <c r="F4" t="n">
-        <v>20.41085246700161</v>
+        <v>20.37917191034491</v>
       </c>
       <c r="G4" t="n">
-        <v>20.00548971548866</v>
+        <v>18.42874366602145</v>
       </c>
       <c r="H4" t="n">
-        <v>16.50009202113152</v>
+        <v>20.56922022339869</v>
+      </c>
+      <c r="I4" t="n">
+        <v>19.87669620263143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.31855511902114</v>
       </c>
     </row>
   </sheetData>

--- a/SNR_Tab.xlsx
+++ b/SNR_Tab.xlsx
@@ -1,37 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leobb\Documents\Travail\R5.12 - Modélisation mathématiques\R5.12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E71B32-53E0-4D3F-8A3B-5C61A891B959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+  <si>
+    <t>Image de depart</t>
+  </si>
+  <si>
+    <t>type de bruitage</t>
+  </si>
+  <si>
+    <t>SNR bruité</t>
+  </si>
+  <si>
+    <t>image1_reference</t>
+  </si>
+  <si>
+    <t>Salt01</t>
+  </si>
+  <si>
+    <t>Add35</t>
+  </si>
+  <si>
+    <t>Mult03</t>
+  </si>
+  <si>
+    <t>image2_reference</t>
+  </si>
+  <si>
+    <t>dcode-image</t>
+  </si>
+  <si>
+    <t>Convolution</t>
+  </si>
+  <si>
+    <t>Convolution 2</t>
+  </si>
+  <si>
+    <t>Convolution DB</t>
+  </si>
+  <si>
+    <t>Convolution 2 DB</t>
+  </si>
+  <si>
+    <t>Ponderation</t>
+  </si>
+  <si>
+    <t>Ponderation 2</t>
+  </si>
+  <si>
+    <t>Ponderation DB</t>
+  </si>
+  <si>
+    <t>Ponderation 2 DB</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Median 2</t>
+  </si>
+  <si>
+    <t>Median DB</t>
+  </si>
+  <si>
+    <t>Median 2 DB</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +120,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +451,527 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="10" width="16.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" customWidth="1"/>
+    <col min="13" max="14" width="16.33203125" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Image de depart</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>type de bruitage</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SNR bruité</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SNR debruité par Conv</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SNR debruité par Conv 2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SNR debruité par Pond</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SNR debruité par Pond 2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>SNR debruité par Med</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SNR debruité par Med 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>image1_reference</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Salt01</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>9.855526265034211</v>
-      </c>
-      <c r="E2" t="n">
-        <v>17.93346731741102</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.17199880502998</v>
-      </c>
-      <c r="G2" t="n">
-        <v>16.92289361150507</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19.12498274659015</v>
-      </c>
-      <c r="I2" t="n">
-        <v>24.64547587895199</v>
-      </c>
-      <c r="J2" t="n">
-        <v>22.14550936085902</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>image1_reference</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Add35</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>11.86212246780504</v>
-      </c>
-      <c r="E3" t="n">
-        <v>20.05044133883128</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.69221952981986</v>
-      </c>
-      <c r="G3" t="n">
-        <v>19.17496002277806</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21.04516497582352</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20.13695982022621</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.27483247958508</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>image1_reference</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Mult03</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>11.09926691095954</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19.4098282631975</v>
-      </c>
-      <c r="F4" t="n">
-        <v>20.37917191034491</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18.42874366602145</v>
-      </c>
-      <c r="H4" t="n">
-        <v>20.56922022339869</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.87669620263143</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.31855511902114</v>
-      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9.8891920508383393</v>
+      </c>
+      <c r="E2" s="3">
+        <v>18.02907948189986</v>
+      </c>
+      <c r="F2" s="3">
+        <v>19.288649559488089</v>
+      </c>
+      <c r="G2" s="3">
+        <v>16.36003717624796</v>
+      </c>
+      <c r="H2" s="3">
+        <v>17.271635475270099</v>
+      </c>
+      <c r="I2" s="3">
+        <v>17.076990459710871</v>
+      </c>
+      <c r="J2" s="3">
+        <v>18.753711065888279</v>
+      </c>
+      <c r="K2" s="3">
+        <v>15.728775268489191</v>
+      </c>
+      <c r="L2" s="3">
+        <v>16.831911438607872</v>
+      </c>
+      <c r="M2" s="3">
+        <v>24.60192129313895</v>
+      </c>
+      <c r="N2" s="3">
+        <v>22.22657154802797</v>
+      </c>
+      <c r="O2" s="3">
+        <v>19.164098160200819</v>
+      </c>
+      <c r="P2" s="3">
+        <v>18.742165986948201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>11.868357844760441</v>
+      </c>
+      <c r="E3" s="3">
+        <v>20.005144027906809</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20.65016735096145</v>
+      </c>
+      <c r="G3" s="3">
+        <v>18.42189174575341</v>
+      </c>
+      <c r="H3" s="3">
+        <v>19.11697403303728</v>
+      </c>
+      <c r="I3" s="3">
+        <v>19.205529333233351</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20.680677899566842</v>
+      </c>
+      <c r="K3" s="3">
+        <v>17.86340591267578</v>
+      </c>
+      <c r="L3" s="3">
+        <v>18.90554961164051</v>
+      </c>
+      <c r="M3" s="3">
+        <v>20.198203286037689</v>
+      </c>
+      <c r="N3" s="3">
+        <v>17.305031895100669</v>
+      </c>
+      <c r="O3" s="3">
+        <v>18.89079279146544</v>
+      </c>
+      <c r="P3" s="3">
+        <v>17.833911643313741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11.098571937482969</v>
+      </c>
+      <c r="E4" s="3">
+        <v>19.415591574117681</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20.38561921363695</v>
+      </c>
+      <c r="G4" s="3">
+        <v>17.861467861786949</v>
+      </c>
+      <c r="H4" s="3">
+        <v>18.732087527510679</v>
+      </c>
+      <c r="I4" s="3">
+        <v>18.515075326238389</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.166174357637431</v>
+      </c>
+      <c r="K4" s="3">
+        <v>17.231711571566638</v>
+      </c>
+      <c r="L4" s="3">
+        <v>18.387344255925829</v>
+      </c>
+      <c r="M4" s="3">
+        <v>19.949611079352159</v>
+      </c>
+      <c r="N4" s="3">
+        <v>16.225812183405559</v>
+      </c>
+      <c r="O4" s="3">
+        <v>18.56882508843907</v>
+      </c>
+      <c r="P4" s="3">
+        <v>17.25383392612521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12.23103154160065</v>
+      </c>
+      <c r="E5" s="3">
+        <v>19.557352722736631</v>
+      </c>
+      <c r="F5" s="3">
+        <v>19.8120170022931</v>
+      </c>
+      <c r="G5" s="3">
+        <v>18.22339276444275</v>
+      </c>
+      <c r="H5" s="3">
+        <v>18.75803158842016</v>
+      </c>
+      <c r="I5" s="3">
+        <v>18.932322856656199</v>
+      </c>
+      <c r="J5" s="3">
+        <v>20.0073813205675</v>
+      </c>
+      <c r="K5" s="3">
+        <v>17.717755728333142</v>
+      </c>
+      <c r="L5" s="3">
+        <v>18.58517718449642</v>
+      </c>
+      <c r="M5" s="3">
+        <v>25.59027859185726</v>
+      </c>
+      <c r="N5" s="3">
+        <v>22.272172844745779</v>
+      </c>
+      <c r="O5" s="3">
+        <v>21.365718500589779</v>
+      </c>
+      <c r="P5" s="3">
+        <v>20.830498561293499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15.71864779237195</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22.377282786122269</v>
+      </c>
+      <c r="F6" s="3">
+        <v>21.422341981646881</v>
+      </c>
+      <c r="G6" s="3">
+        <v>21.08212970329139</v>
+      </c>
+      <c r="H6" s="3">
+        <v>21.011509943812641</v>
+      </c>
+      <c r="I6" s="3">
+        <v>22.221024928047349</v>
+      </c>
+      <c r="J6" s="3">
+        <v>22.609818067961228</v>
+      </c>
+      <c r="K6" s="3">
+        <v>20.828803678102179</v>
+      </c>
+      <c r="L6" s="3">
+        <v>21.354475741974571</v>
+      </c>
+      <c r="M6" s="3">
+        <v>22.615657351384229</v>
+      </c>
+      <c r="N6" s="3">
+        <v>19.140501218892862</v>
+      </c>
+      <c r="O6" s="3">
+        <v>21.665887593547279</v>
+      </c>
+      <c r="P6" s="3">
+        <v>19.9243244822508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>12.13477800475955</v>
+      </c>
+      <c r="E7" s="3">
+        <v>18.740844506726049</v>
+      </c>
+      <c r="F7" s="3">
+        <v>18.847995211831961</v>
+      </c>
+      <c r="G7" s="3">
+        <v>17.832932110587201</v>
+      </c>
+      <c r="H7" s="3">
+        <v>18.286443016792251</v>
+      </c>
+      <c r="I7" s="3">
+        <v>18.242381143765989</v>
+      </c>
+      <c r="J7" s="3">
+        <v>19.084035385915421</v>
+      </c>
+      <c r="K7" s="3">
+        <v>17.37381517254131</v>
+      </c>
+      <c r="L7" s="3">
+        <v>18.157472660821892</v>
+      </c>
+      <c r="M7" s="3">
+        <v>20.833068696681231</v>
+      </c>
+      <c r="N7" s="3">
+        <v>17.918939531571318</v>
+      </c>
+      <c r="O7" s="3">
+        <v>19.846653243746651</v>
+      </c>
+      <c r="P7" s="3">
+        <v>18.422438719907671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9.3832714654769642</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14.440669454702331</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14.047675822784139</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12.96283629015711</v>
+      </c>
+      <c r="H8" s="3">
+        <v>13.045188102820999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>14.52763093113315</v>
+      </c>
+      <c r="J8" s="3">
+        <v>14.70646494904387</v>
+      </c>
+      <c r="K8" s="3">
+        <v>12.87121252904992</v>
+      </c>
+      <c r="L8" s="3">
+        <v>13.150843628988291</v>
+      </c>
+      <c r="M8" s="3">
+        <v>15.913774664765659</v>
+      </c>
+      <c r="N8" s="3">
+        <v>13.6648369292392</v>
+      </c>
+      <c r="O8" s="3">
+        <v>14.080855676473529</v>
+      </c>
+      <c r="P8" s="3">
+        <v>13.5876277135372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>11.856789881982721</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15.58624616485587</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14.579247978765411</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15.05372421000288</v>
+      </c>
+      <c r="H9" s="3">
+        <v>14.8347024225555</v>
+      </c>
+      <c r="I9" s="3">
+        <v>16.15246256415222</v>
+      </c>
+      <c r="J9" s="3">
+        <v>15.71854650336466</v>
+      </c>
+      <c r="K9" s="3">
+        <v>15.14744075980324</v>
+      </c>
+      <c r="L9" s="3">
+        <v>15.22014034015575</v>
+      </c>
+      <c r="M9" s="3">
+        <v>14.896262912348339</v>
+      </c>
+      <c r="N9" s="3">
+        <v>12.606852834668519</v>
+      </c>
+      <c r="O9" s="3">
+        <v>15.196013235103729</v>
+      </c>
+      <c r="P9" s="3">
+        <v>14.320834190239379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>11.356893096360601</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15.14518571678046</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14.236469779003921</v>
+      </c>
+      <c r="G10" s="3">
+        <v>14.50272270153844</v>
+      </c>
+      <c r="H10" s="3">
+        <v>14.33281008365887</v>
+      </c>
+      <c r="I10" s="3">
+        <v>15.63275719037188</v>
+      </c>
+      <c r="J10" s="3">
+        <v>15.286521666159739</v>
+      </c>
+      <c r="K10" s="3">
+        <v>14.56712623439655</v>
+      </c>
+      <c r="L10" s="3">
+        <v>14.66516724700473</v>
+      </c>
+      <c r="M10" s="3">
+        <v>14.5287590570052</v>
+      </c>
+      <c r="N10" s="3">
+        <v>11.907982279070341</v>
+      </c>
+      <c r="O10" s="3">
+        <v>14.79440697873491</v>
+      </c>
+      <c r="P10" s="3">
+        <v>13.82799394194403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
